--- a/biology/Médecine/Tête_(anatomie_humaine)/Tête_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Tête_(anatomie_humaine)/Tête_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tête est la partie de l’anatomie du corps humain portée par le cou. L’homme, comme tous les primates, a une tête très différenciée, avec un cerveau important, un front, deux grands yeux placés à l’avant, un nez, des joues, une bouche et deux oreilles (une sur chaque côté de la tête). Sa face est aplatie et particulièrement mobile : on l’appelle le visage. Au sommet de la tête se trouve la chevelure. Les os de la tête forment le crâne, dont la mâchoire porte la denture. La tête humaine augmente d'approximativement 15 % jusqu'à l'âge adulte.[réf. souhaitée] C'est lors de l'adolescence que cette poussée accrue s'effectue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Muscles et vaisseaux de la face
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À cinq mois, la tête d'un fœtus fait 35 % de sa taille totale.
-À la naissance, la tête de l'enfant fait un quart (25%) de sa taille totale. À l'âge adulte, la tête d'un humain ne fait plus qu'un septième (14%) de sa taille totale[1].
+À la naissance, la tête de l'enfant fait un quart (25%) de sa taille totale. À l'âge adulte, la tête d'un humain ne fait plus qu'un septième (14%) de sa taille totale.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Évacuation de la chaleur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le médecin urgentiste Gérald Kierzek, « environ 30% de la chaleur corporelle s’échappe par la tête »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le médecin urgentiste Gérald Kierzek, « environ 30% de la chaleur corporelle s’échappe par la tête ».
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Vêtements et accessoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vêtements portés sur le sommet de la tête sont des couvre-chefs. Par exemple : un armet, une bombe, un bonnet, un bandeau, un béret, un bob, une cagoule, un casque, une casquette, une cervelière, un chapeau, une couronne (de fleurs), un foulard, une perruque. Il existe d'autres accessoires pour la tête, qui ne sont pas des couvre-chefs : boucle d’oreille, lunettes, piercing, masque.
 Divers accessoires sont conçus pour le confort de la tête : l’oreiller pour dormir, l’appui-tête.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Représentations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les représentations de tête humaine, ou portrait, existent depuis la préhistoire. On peut citer les têtes monumentales de l’art olmèque.
 </t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T%C3%AAte_(anatomie_humaine)</t>
+          <t>Tête_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Expressions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
